--- a/Dataset/MMLU_fa/mmlu-anatomy_fa.xlsx
+++ b/Dataset/MMLU_fa/mmlu-anatomy_fa.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="648">
-  <si>
-    <t xml:space="preserve">qustion</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="649">
+  <si>
+    <t xml:space="preserve">question</t>
   </si>
   <si>
     <t xml:space="preserve">option1</t>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">option4</t>
   </si>
   <si>
+    <t xml:space="preserve">answer</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -132,7 +135,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">صورت ظرف</t>
+      <t xml:space="preserve">صورت ظرفشویی</t>
     </r>
     <r>
       <rPr>
@@ -221,7 +224,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">کدام یک از موارد زیر ساختار جمع آوری ادرار را در بدن بهتر توصیف می کند؟</t>
+    <t xml:space="preserve">کدام یک از موارد زیر ساختار جمع آوری ادرار در بدن را بهتر توصیف می کند؟</t>
   </si>
   <si>
     <t xml:space="preserve">مثانه</t>
@@ -251,7 +254,7 @@
     <t xml:space="preserve">غدد عرق</t>
   </si>
   <si>
-    <t xml:space="preserve">کدام یک از موارد زیر مجموعه ای از مویرگ های خونی موجود در هر نفرون کلیه را توصیف می کند؟</t>
+    <t xml:space="preserve">کدام یک از موارد زیر مجموعه ای از مویرگ های خونی موجود در هر نفرون در کلیه را توصیف می کند؟</t>
   </si>
   <si>
     <t xml:space="preserve">شریان آوران</t>
@@ -260,7 +263,7 @@
     <t xml:space="preserve">گلومرول</t>
   </si>
   <si>
-    <t xml:space="preserve">حلقه هنله</t>
+    <t xml:space="preserve">حلقه هنل</t>
   </si>
   <si>
     <t xml:space="preserve">لگن کلیه</t>
@@ -371,7 +374,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">کدام یک از نواحی تشریحی زیر شکم درست در قسمت انتهایی جناغ است؟</t>
+    <t xml:space="preserve">کدام یک از نواحی تشریحی زیر شکم دقیقاً در قسمت انتهایی جناغ قرار دارد؟</t>
   </si>
   <si>
     <t xml:space="preserve">اپی گاستر</t>
@@ -492,7 +495,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">کام سخت، لب بالا و ثنایای مرکزی فوقانی</t>
+      <t xml:space="preserve">کام سخت، لب فوقانی و ثنایای مرکزی فوقانی</t>
     </r>
     <r>
       <rPr>
@@ -534,7 +537,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک بیمار در یک حادثه ترافیک جاده ای به اربیت آسیب می رساند که منجر به آسیب به عصب سوم جمجمه می شود</t>
+      <t xml:space="preserve">یک بیمار در یک حادثه ترافیک جاده ای از آسیب به اربیت رنج می برد که منجر به آسیب به عصب سوم جمجمه می شود</t>
     </r>
     <r>
       <rPr>
@@ -660,7 +663,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">عضله کریکوتیروئید هنوز کار می کند اما اینتراریتنوئیدها ضعیف هستند</t>
+      <t xml:space="preserve">عضله کریکوتیروئید هنوز فعال است اما اینتراریتنوئیدها ضعیف هستند</t>
     </r>
     <r>
       <rPr>
@@ -867,7 +870,7 @@
     <t xml:space="preserve">پانکراس</t>
   </si>
   <si>
-    <t xml:space="preserve">گره سینوسی در کجا قرار دارد؟</t>
+    <t xml:space="preserve">گره سینوسی دهلیزی در کجا قرار دارد؟</t>
   </si>
   <si>
     <t xml:space="preserve">بین دهلیز چپ و بطن چپ</t>
@@ -909,7 +912,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">اعماق مرزهای پایین ترش</t>
+    <t xml:space="preserve">اعماق مرز پایین ترش</t>
   </si>
   <si>
     <t xml:space="preserve">سطحی تا مرز پایینی آن</t>
@@ -976,7 +979,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">مزودرم تشکیل می شود و پس از نورولاسیون رخ می دهد</t>
+      <t xml:space="preserve">ایجاد مزودرم و پس از نورولاسیون رخ می دهد</t>
     </r>
     <r>
       <rPr>
@@ -1335,7 +1338,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">شریان گیجگاهی سطحی از لبه مداری عبور می کند</t>
+      <t xml:space="preserve">شریان گیجگاهی سطحی از لبه اوربیت عبور می کند</t>
     </r>
     <r>
       <rPr>
@@ -1440,7 +1443,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">این از فرآیندهای عصبی خودمختار تشکیل شده است و یکی از چندین اتصال الکتریکی بین دهلیزها و بطن ها را تشکیل می دهد</t>
+      <t xml:space="preserve">از فرآیندهای عصبی خودمختار تشکیل شده و یکی از چندین اتصال الکتریکی بین دهلیزها و بطن ها را تشکیل می دهد</t>
     </r>
     <r>
       <rPr>
@@ -1569,7 +1572,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">فرآیندهای کام، پیش بینی و ثانویه بینی</t>
+      <t xml:space="preserve">فرآیندهای پالاتین، پیش بینی و ثانویه بینی</t>
     </r>
     <r>
       <rPr>
@@ -1710,7 +1713,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">کدام یک از موارد زیر اندام لنفاویی است که مخزن گلبول های قرمز خون است و موجودات را از خون تصفیه می کند؟</t>
+    <t xml:space="preserve">کدام یک از اندام های زیر لنفوئیدی است که مخزن گلبول های قرمز است و موجودات را از خون تصفیه می کند؟</t>
   </si>
   <si>
     <t xml:space="preserve">کدام یک از حفره های زیر توسط دیافراگم جدا می شود؟</t>
@@ -1801,7 +1804,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ماهیچه صاف و اپیتلیوم تنفسی</t>
+      <t xml:space="preserve">عضلات صاف و اپیتلیوم تنفسی</t>
     </r>
     <r>
       <rPr>
@@ -2023,28 +2026,28 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">عصب حنجره داخلی که اندام آوران رفلکس گگ است</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">عصب حنجره خارجی که اندام آوران رفلکس سرفه است</t>
+      <t xml:space="preserve">عصب داخلی حنجره که اندام آوران رفلکس گگ است</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">عصب خارجی حنجره که اندام آوران رفلکس سرفه است</t>
     </r>
     <r>
       <rPr>
@@ -2202,7 +2205,7 @@
     <t xml:space="preserve">بازوفیل</t>
   </si>
   <si>
-    <t xml:space="preserve">بخیه تاجی به</t>
+    <t xml:space="preserve">بخیه تاج به آن می پیوندد</t>
   </si>
   <si>
     <t xml:space="preserve">استخوان های پیشانی و جداری</t>
@@ -2388,7 +2391,7 @@
     <t xml:space="preserve">منافذ ذهنی</t>
   </si>
   <si>
-    <t xml:space="preserve">همه موارد بالا</t>
+    <t xml:space="preserve">همه موارد فوق</t>
   </si>
   <si>
     <t xml:space="preserve">کدام یک از ساختارهای زیر مری را از طریق دیافراگم همراهی می کند؟</t>
@@ -2503,7 +2506,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">عمیق به ماستر می شود و در مقابل پرمولر دوم بالایی وارد دهان می شود</t>
+      <t xml:space="preserve">عمیق به ماساژور می رسد و در مقابل پرمولر دوم بالایی وارد دهان می شود</t>
     </r>
     <r>
       <rPr>
@@ -2838,7 +2841,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">فلج ماهیچه های زبان</t>
+    <t xml:space="preserve">فلج عضلات زبان</t>
   </si>
   <si>
     <t xml:space="preserve">یک اثر احتمالی آسیب به عصب سوم جمجمه در اثر ضربه به مدار است</t>
@@ -2963,7 +2966,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">شانه های خود را در برابر مقاومت بلند کنند</t>
+      <t xml:space="preserve">شانه های خود را در برابر مقاومت بلند کنید</t>
     </r>
     <r>
       <rPr>
@@ -3010,7 +3013,7 @@
     <t xml:space="preserve">ماهیچه های جونده و شکم قدامی و خلفی معده</t>
   </si>
   <si>
-    <t xml:space="preserve">عضلات جونده، شکم قدامی و خلفی معده و جنیوهیوئید</t>
+    <t xml:space="preserve">ماهیچه های جونده، شکم قدامی و خلفی معده و جنیوهیوئید</t>
   </si>
   <si>
     <t xml:space="preserve">کدام یک از موارد زیر مکانی را که می توان نبض کاروتید پیدا کرد را به بهترین نحو توصیف می کند؟</t>
@@ -3128,7 +3131,7 @@
     <t xml:space="preserve">غضروف کریکوئید</t>
   </si>
   <si>
-    <t xml:space="preserve">حلقه های تراشه</t>
+    <t xml:space="preserve">حلقه های نای</t>
   </si>
   <si>
     <r>
@@ -3603,28 +3606,28 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">قطعه قدامی در اثر عمل عضله تمپورال به سمت عقب جابجا می شود</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">قطعه خلفی که با عمل عضله ناخنک میانی به سمت داخلی جابجا می شود</t>
+      <t xml:space="preserve">قطعه قدامی با عمل عضله تمپورالیس به سمت عقب جابجا می شود</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">قطعه خلفی که با عمل عضله ناخنک داخلی به سمت داخلی جابجا می شود</t>
     </r>
     <r>
       <rPr>
@@ -3786,7 +3789,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک بیمار دچار </t>
+      <t xml:space="preserve">یک بیمار در ناحیه کپسول داخلی سمت چپ که نورون های حرکتی را به پای راست می رساند، دچار </t>
     </r>
     <r>
       <rPr>
@@ -3805,7 +3808,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">در ناحیه کپسول داخلی سمت چپ می شود که نورون های حرکتی را به پای راست می رساند</t>
+      <t xml:space="preserve">می شود</t>
     </r>
     <r>
       <rPr>
@@ -3841,7 +3844,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">تاج یک دندان بسیار پوسیدگی در حالی که بیمار ایستاده در حال غذا خوردن در یک خروجی غذا است ناگهان می‌شکند و تکه‌ای از آن استنشاق می‌شود</t>
+      <t xml:space="preserve">تاج یک دندان بسیار پوسیدگی ناگهان در حالی که بیمار ایستاده است و در حال غذا خوردن در یک خروجی غذا است می‌شکند و تکه‌ای از آن استنشاق می‌شود</t>
     </r>
     <r>
       <rPr>
@@ -3963,13 +3966,13 @@
     <t xml:space="preserve">استروژن ها</t>
   </si>
   <si>
-    <t xml:space="preserve">نورآدرنالین انتقال دهنده عصبی بین کدام یک از دو ساختار زیر است؟</t>
+    <t xml:space="preserve">نورآدرنالین ناقل عصبی بین کدام یک از دو ساختار زیر است؟</t>
   </si>
   <si>
     <t xml:space="preserve">نورون های پیش و پس از گانگلیونی پاراسمپاتیک</t>
   </si>
   <si>
-    <t xml:space="preserve">نورون های سمپاتیک پیش و پس از گانگلیونی</t>
+    <t xml:space="preserve">نورون های پیش و پس از گانگلیونی سمپاتیک</t>
   </si>
   <si>
     <t xml:space="preserve">نورون های پس گانگلیونی پاراسمپاتیک و اندام های هدف</t>
@@ -4258,7 +4261,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">کدام یک از عبارات زیر در مورد رشد فک بالا پس از زایمان صحیح است؟</t>
+    <t xml:space="preserve">کدام یک از عبارات زیر در مورد رشد فک بالا پس از تولد صحیح است؟</t>
   </si>
   <si>
     <r>
@@ -4289,7 +4292,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">فضایی برای رویش مولرهای دائمی با تحلیل توبروزیته ماگزیلاری ایجاد می شود</t>
+      <t xml:space="preserve">فضایی برای رویش مولرهای دائمی با تحلیل توبروزیته فک بالا ایجاد می شود</t>
     </r>
     <r>
       <rPr>
@@ -4529,7 +4532,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">در چین های دهلیزی غدد مخاطی متعددی وجود دارد</t>
+      <t xml:space="preserve">غدد مخاطی متعددی در چین های دهلیزی وجود دارد</t>
     </r>
     <r>
       <rPr>
@@ -4729,7 +4732,34 @@
     <t xml:space="preserve">عضله ناخنک جانبی راست</t>
   </si>
   <si>
-    <t xml:space="preserve">عضله ناخنک میانی چپ</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">عضله </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">pterygoid </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">داخلی چپ</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">عضله ناخنک میانی راست</t>
@@ -4789,13 +4819,13 @@
     <t xml:space="preserve">اعصاب پرگانگلیونی پاراسمپاتیک از سیستم عصبی مرکزی خارج می شوند</t>
   </si>
   <si>
-    <t xml:space="preserve">اعصاب سوم جمجمه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اعصاب جمجمه چهارم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اعصاب جمجمه پنجم</t>
+    <t xml:space="preserve">اعصاب جمجمه سوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعصاب چهارم جمجمه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعصاب پنجم جمجمه ای</t>
   </si>
   <si>
     <t xml:space="preserve">اعصاب ششم جمجمه ای</t>
@@ -5001,7 +5031,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">شما انتظار دارید که غده بزرگ شود</t>
+      <t xml:space="preserve">انتظار بزرگ شدن غده را دارید</t>
     </r>
   </si>
   <si>
@@ -5120,7 +5150,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">استخوان را جذب می کند و از سلول های مزانشیمی پریوستال متمایز می شود</t>
+      <t xml:space="preserve">استخوان را جذب می کند و از سلول های مزانشیمی پریوستال تمایز می یابد</t>
     </r>
     <r>
       <rPr>
@@ -5276,7 +5306,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">به پروسه کندیل متصل می شود و فک پایین را بیرون می زند</t>
+      <t xml:space="preserve">به روند کندیل متصل شده و فک پایین را بیرون می زند</t>
     </r>
     <r>
       <rPr>
@@ -5359,7 +5389,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">کدام یک از استخوان های زیر در اثر استخوان سازی اندوکندرا ایجاد می شود؟</t>
+    <t xml:space="preserve">کدام یک از استخوان های زیر در اثر استخوان سازی اندوکندرا رشد می کند؟</t>
   </si>
   <si>
     <t xml:space="preserve">دنده ها</t>
@@ -5384,28 +5414,28 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">کراتینه شده و دارای زیرمخاط و غدد بزاقی جزئی در قسمت خلفی است</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">کراتینه نشده و دارای زیرمخاط و غدد بزاقی جزئی از طریق خلف داخلی است</t>
+      <t xml:space="preserve">کراتینه شده و دارای زیرمخاط و غدد بزاقی جزئی در سمت خلفی است</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">کراتینه نشده و دارای زیرمخاط و غدد بزاقی جزئی از طریق پسرو مدیال است</t>
     </r>
     <r>
       <rPr>
@@ -5700,28 +5730,28 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">اسکن ام آر آی خونریزی خارج از رحم را نشان می دهد، زیرا خون خارج شده بین دو دستگاه قابل تشخیص است</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">استخوان‌های جمجمه و سخت‌شکم</t>
+      <t xml:space="preserve">اسکن ام آر آی خونریزی خارج از رحم را نشان می دهد، زیرا خون خارج شده بین دو دستگاه تشخیص داده می شود</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">استخوان های جمجمه و سخت شامه</t>
     </r>
     <r>
       <rPr>
@@ -5858,7 +5888,7 @@
     <t xml:space="preserve">فورامن بیضی شکل، گرد و خاردار است</t>
   </si>
   <si>
-    <t xml:space="preserve">فورامن بیضی، گرد و خاردار و سوراخ سوراخ</t>
+    <t xml:space="preserve">فورامن بیضی، گرد و خاردار و فورامن لاسروم</t>
   </si>
   <si>
     <t xml:space="preserve">کدام یک از موارد زیر اختلالی است که با دوره های غیرقابل کنترل به خواب رفتن در طول روز مشخص می شود؟</t>
@@ -5930,7 +5960,7 @@
     <t xml:space="preserve">باز، مارپیچ</t>
   </si>
   <si>
-    <t xml:space="preserve">لقاح تخمک توسط اسپرم در کدام یک از ساختارهای زیر رخ می دهد؟</t>
+    <t xml:space="preserve">لقاح تخمک توسط اسپرم در کدام یک از ساختارهای زیر اتفاق می افتد؟</t>
   </si>
   <si>
     <t xml:space="preserve">دهانه رحم</t>
@@ -6163,14 +6193,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">از طریق </t>
+    <t xml:space="preserve">از طریق ناخنک داخلی</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">پایین تر از </t>
     </r>
     <r>
       <rPr>
@@ -6191,36 +6224,6 @@
       </rPr>
       <t xml:space="preserve">داخلی</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">پایین تر از </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">pterygoid </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">داخلی</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6368,7 +6371,7 @@
     <t xml:space="preserve">بویایی</t>
   </si>
   <si>
-    <t xml:space="preserve">از طریق یاد بگیرید</t>
+    <t xml:space="preserve">کامل بخوانید</t>
   </si>
   <si>
     <t xml:space="preserve">مراکز حیاتی در ساقه مغز کجا قرار دارند؟</t>
@@ -6383,7 +6386,7 @@
     <t xml:space="preserve">بصل النخاع</t>
   </si>
   <si>
-    <t xml:space="preserve">بزاق حاوی آنزیمی است که روی کدام یک از مواد مغذی زیر اثر می گذارد؟</t>
+    <t xml:space="preserve">بزاق حاوی آنزیمی است که بر روی کدام یک از مواد مغذی زیر اثر می گذارد؟</t>
   </si>
   <si>
     <t xml:space="preserve">نشاسته ها</t>
@@ -6597,7 +6600,7 @@
     <t xml:space="preserve">عصب هیپوگلوسال</t>
   </si>
   <si>
-    <t xml:space="preserve">در مردان، نمونه های کشت گنوکوک بیشتر از کدام یک از ساختارهای زیر به دست می آید؟</t>
+    <t xml:space="preserve">در مردان، نمونه های کشت گنوکوکی بیشتر از کدام یک از ساختارهای زیر به دست می آید؟</t>
   </si>
   <si>
     <t xml:space="preserve">مقعد</t>
@@ -6923,10 +6926,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6950,2300 +6953,2708 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
